--- a/biology/Médecine/Hôpital_régional_de_Maroua/Hôpital_régional_de_Maroua.xlsx
+++ b/biology/Médecine/Hôpital_régional_de_Maroua/Hôpital_régional_de_Maroua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Maroua</t>
+          <t>Hôpital_régional_de_Maroua</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital régional de Maroua, en abrégé HRM, est un hôpital public à Maroua dans la région de l'Extrême-Nord du Cameroun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Maroua</t>
+          <t>Hôpital_régional_de_Maroua</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire de l’hôpital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hôpital Régional de Maroua est créé vers 1933 comme dispensaire[1]. Il s'agit d'une formation sanitaire de troisième catégorie. Il est classé de référence niveau 2. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hôpital Régional de Maroua est créé vers 1933 comme dispensaire. Il s'agit d'une formation sanitaire de troisième catégorie. Il est classé de référence niveau 2. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Maroua</t>
+          <t>Hôpital_régional_de_Maroua</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Services de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est organisé en départements et service. Il y a un département de médecine, de chirurgie et spécialités apparentées, d'appui au diagnostic et au traitement, un service de gynécologie-obstétrique, de pédiatrie et néonatalogie et les services des urgences et consultations externes[2].
-En 2021, le département d'appui au diagnostic et au traitement en son centre régional d’imagerie médicale a reçu un kit de radio numérique et un scanner[3].
-Le service de gynécologie-obstétrique s'est doté d'un centre de prise en charge des fistules obstétricales inauguré le 15 septembre 2020[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est organisé en départements et service. Il y a un département de médecine, de chirurgie et spécialités apparentées, d'appui au diagnostic et au traitement, un service de gynécologie-obstétrique, de pédiatrie et néonatalogie et les services des urgences et consultations externes.
+En 2021, le département d'appui au diagnostic et au traitement en son centre régional d’imagerie médicale a reçu un kit de radio numérique et un scanner.
+Le service de gynécologie-obstétrique s'est doté d'un centre de prise en charge des fistules obstétricales inauguré le 15 septembre 2020. 
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Maroua</t>
+          <t>Hôpital_régional_de_Maroua</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital s'est engagé dans la riposte au Covid-19 par un dispositif de prise en charge[5].
-Il est compté parmi les centres de vaccination anti-COVID19 au Cameroun[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital s'est engagé dans la riposte au Covid-19 par un dispositif de prise en charge.
+Il est compté parmi les centres de vaccination anti-COVID19 au Cameroun.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Maroua</t>
+          <t>Hôpital_régional_de_Maroua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de ses activités, l'hôpital s'entoure de partenariats avec des organismes tels Médecins sans frontières (MSF) et le Comité international de la Croix-Rouge (CICR)[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de ses activités, l'hôpital s'entoure de partenariats avec des organismes tels Médecins sans frontières (MSF) et le Comité international de la Croix-Rouge (CICR).
 </t>
         </is>
       </c>
